--- a/biology/Médecine/Charles_Czernicki/Charles_Czernicki.xlsx
+++ b/biology/Médecine/Charles_Czernicki/Charles_Czernicki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Auguste Hyppolite Czernicki (né le 6 septembre 1845 au Cannet et mort le 28 juillet 1917 à Montmorency est un médecin militaire français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Jérôme Adolfe Czernicki, médecin général insurgé de 1831 et émigré et Ursule Fioupou[2], il étudie à Cannes, puis à l'école polonaise de Paris en 1856. Suivent les années au lycée Bonaparte de Paris et à la Sorbonne. Sorti en 1862, il entame ses années de médecine à l'école militaire de Strasbourg pour les terminer au Val-de-Grâce de Paris (il sort 1er sur les 76 étudiants). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Jérôme Adolfe Czernicki, médecin général insurgé de 1831 et émigré et Ursule Fioupou, il étudie à Cannes, puis à l'école polonaise de Paris en 1856. Suivent les années au lycée Bonaparte de Paris et à la Sorbonne. Sorti en 1862, il entame ses années de médecine à l'école militaire de Strasbourg pour les terminer au Val-de-Grâce de Paris (il sort 1er sur les 76 étudiants). 
 Il épouse en 1870 Pauline Hélène Matuszynska.
 Il devient médecin attaché à l'armée du Rhin, avec laquelle il prend part à plusieurs batailles de la guerre de 1870. Lors de la campagne de Tunisie, il est medecin-major au 141e régiment d'infanterie, puis il est nommé sécrétaire du comité consultatif du service de santé. Plus tard, il devient médecin*chef successivement aux hopitaux de Belfort, Montpellier et Bordeaux. Au sein du service de santé du 18e corps d'armée, il est directeur de service, puis médecin-inspecteur avec le grade de général de brigade. Peu après, il est élévé à la dignité de commandeur de la Légion d'Honneur.
 Veuf en 1907, il épouse en secondes noces Mme Jean-Berteroy à Montmorency en 1912. Il meurt le 28 juillet 1917 à Montmorency et sa dépouille repose au Cannet.
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Étude clinique sur la fièvre typhoïde
  Des Maladies des armées en campagne au point de vue de l'utilisation des sociétés de secours</t>
@@ -572,7 +588,9 @@
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>dans l'Ordre de la Légion d'honneur
 Chevalier en 1891
